--- a/BalanceSheet/GH_bal.xlsx
+++ b/BalanceSheet/GH_bal.xlsx
@@ -274,19 +274,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>5015000.0</v>
+        <v>23000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-7377000.0</v>
+        <v>28000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>4794000.0</v>
+        <v>20000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-9967000.0</v>
+        <v>25000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-421000.0</v>
+        <v>15000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>14760000.0</v>
@@ -904,19 +904,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-8705000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>3322000.0</v>
+        <v>18000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-11967000.0</v>
+        <v>16000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>9491000.0</v>
+        <v>24000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>3915000.0</v>
+        <v>16000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>12054000.0</v>
